--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1259889.008881818</v>
+        <v>1321670.007165399</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484467</v>
+        <v>492028.9342484453</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6803249.982645509</v>
+        <v>6803249.98264551</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -668,10 +668,10 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>94.19782593426922</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>266.6589701214174</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>215.7997827029257</v>
+        <v>37.77873832573488</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>357.7350341373335</v>
       </c>
       <c r="F5" t="n">
-        <v>328.7844008154631</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -962,7 +962,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1069,7 +1069,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1105,13 +1105,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>132.8805244418594</v>
+        <v>131.996999652747</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1139,7 +1139,7 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -1190,16 +1190,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>353.1779532171128</v>
+        <v>318.0582422849117</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>119.8634463900538</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1348,10 +1348,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>235.6059963711107</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>163.5395542426756</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>18.64034175572537</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1537,16 +1537,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>60.78001549303642</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>165.2047610440493</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>32.67077719907107</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1670,7 +1670,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>147.3525275309884</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1774,16 +1774,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068454</v>
       </c>
       <c r="X16" t="n">
-        <v>222.8452350570638</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1853,7 +1853,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>155.9902440393918</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>32.67077719907036</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
-        <v>146.8581123645739</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2087,7 +2087,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>161.8384861377953</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>33.08339867820334</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2242,13 +2242,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2257,7 +2257,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>61.0638661390989</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>102.6974459740352</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2305,7 +2305,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2482,7 +2482,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>130.5953288477701</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>272.5018050100019</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2719,7 +2719,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>65.07405371603591</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>108.5103196251637</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2950,25 +2950,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>137.2258786304579</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>29.18607610565431</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>240.7177837031574</v>
+        <v>103.3456594571962</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3329,7 +3329,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864815</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3424,7 +3424,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3433,16 +3433,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513542</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>89.05336748755539</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,13 +3721,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>146.3752975271669</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630718</v>
       </c>
     </row>
     <row r="41">
@@ -3904,7 +3904,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>47.6140484974989</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3916,7 +3916,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>67.42894579208325</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791304972</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>80.61608517870657</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>266.1592746401469</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>626.6133988393536</v>
+        <v>573.0972938764639</v>
       </c>
       <c r="C2" t="n">
-        <v>592.511330063181</v>
+        <v>134.9548210598872</v>
       </c>
       <c r="D2" t="n">
-        <v>560.6419492780296</v>
+        <v>103.0854402747358</v>
       </c>
       <c r="E2" t="n">
-        <v>530.9076084767289</v>
+        <v>73.351099473435</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>49.5240739230468</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.5240739230468</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.5240739230468</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>524.3060841805653</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489127</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797689</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756283</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>2092.747277443167</v>
       </c>
       <c r="W2" t="n">
-        <v>1072.260748364489</v>
+        <v>1687.8918228542</v>
       </c>
       <c r="X2" t="n">
-        <v>1057.158688984204</v>
+        <v>1268.749359433511</v>
       </c>
       <c r="Y2" t="n">
-        <v>648.8725652838574</v>
+        <v>999.3968643613717</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781219</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397434</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>446.7326829940187</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>781.5325614408401</v>
+        <v>734.0120466529457</v>
       </c>
       <c r="C4" t="n">
-        <v>608.9708499240651</v>
+        <v>561.4503351361707</v>
       </c>
       <c r="D4" t="n">
-        <v>608.9708499240651</v>
+        <v>395.5723423376933</v>
       </c>
       <c r="E4" t="n">
-        <v>439.2128461748023</v>
+        <v>225.8143385884306</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.1072845501868</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>323.8657391213224</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>742.0756208892834</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>1201.559488070196</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1643.818291227841</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>2063.487540453623</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2287.171452645008</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.36422750934</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214712</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2274.705037512709</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>2028.825591091164</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>1750.392590344269</v>
       </c>
       <c r="V4" t="n">
-        <v>1418.750429333523</v>
+        <v>1463.4370822147</v>
       </c>
       <c r="W4" t="n">
-        <v>1418.750429333523</v>
+        <v>1191.410677800991</v>
       </c>
       <c r="X4" t="n">
-        <v>1200.770850845719</v>
+        <v>1153.250336057825</v>
       </c>
       <c r="Y4" t="n">
-        <v>973.3511801598272</v>
+        <v>925.8306653719328</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>1197.718769568169</v>
       </c>
       <c r="C5" t="n">
-        <v>1226.179759784392</v>
+        <v>1163.616700791996</v>
       </c>
       <c r="D5" t="n">
-        <v>797.5980855216599</v>
+        <v>727.7069159664404</v>
       </c>
       <c r="E5" t="n">
-        <v>767.8637447203591</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2047.406523133708</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>2032.304463753423</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1624.018340053076</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>637.4636583561241</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>464.9019468393491</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>464.9019468393491</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>464.9019468393491</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>288.1948928011053</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>341.7616130750586</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1382.301488122312</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="U7" t="n">
-        <v>1382.301488122312</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1382.301488122312</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1110.275083708603</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>864.8833290420159</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>637.4636583561241</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.3855594523341</v>
+        <v>576.9744364820456</v>
       </c>
       <c r="C8" t="n">
-        <v>930.2834906761614</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D8" t="n">
-        <v>898.41410989101</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E8" t="n">
-        <v>464.6393650493051</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851286</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851286</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851286</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851286</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851286</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851286</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>36.77193545851286</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>36.77193545851286</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>304.2846042752964</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743931</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.39000687349</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172586</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925643</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925643</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1618.529545798682</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1359.307243115699</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1359.307243115699</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1358.492192567136</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1343.390133186851</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>986.6447258968378</v>
+        <v>599.2336029265493</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498057</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.487219286448</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230039</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851286</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>36.77193545851286</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>36.77193545851286</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>36.77193545851286</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>36.77193545851286</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>36.77193545851286</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>217.680814945692</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>672.7335162447887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716307</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114682</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503481</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295688</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>603.4870454844104</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>430.9253339676354</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>430.9253339676354</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>430.9253339676354</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676354</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>265.334058993463</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838375</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851286</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851286</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851286</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>36.77193545851286</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>460.9690517075431</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>903.2278548651877</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090969</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061311</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925643</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925643</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925643</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1592.717326504098</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1314.284325757204</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1314.284325757204</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1076.29847083689</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>830.9067161703022</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>603.4870454844104</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168564</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351988</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847296</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>516.9624360939374</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>115.5646047172014</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397511</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111512</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111512</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K11" t="n">
-        <v>96.73597668111512</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L11" t="n">
-        <v>96.73597668111512</v>
+        <v>1155.608606729855</v>
       </c>
       <c r="M11" t="n">
-        <v>1186.925458503955</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940402</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510708</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344104</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302699</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055756</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239593</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112631</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429648</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363474</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774508</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353819</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653472</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D12" t="n">
         <v>401.3609716556035</v>
@@ -5109,31 +5109,31 @@
         <v>223.8567185987188</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649026</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111512</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
-        <v>96.73597668111512</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>96.73597668111512</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>96.73597668111512</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L12" t="n">
-        <v>96.73597668111512</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M12" t="n">
-        <v>96.73597668111512</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>96.73597668111512</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5160,10 +5160,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>863.3302514665961</v>
+        <v>806.2298140987269</v>
       </c>
       <c r="C13" t="n">
-        <v>863.3302514665961</v>
+        <v>633.6681025819519</v>
       </c>
       <c r="D13" t="n">
-        <v>697.4522586681187</v>
+        <v>467.7901097834746</v>
       </c>
       <c r="E13" t="n">
-        <v>527.6942549188559</v>
+        <v>298.0321060342118</v>
       </c>
       <c r="F13" t="n">
-        <v>350.9872008806121</v>
+        <v>298.0321060342118</v>
       </c>
       <c r="G13" t="n">
-        <v>185.3959259064398</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064398</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111512</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
         <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169405</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U13" t="n">
-        <v>2008.423949418843</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.468441289274</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1449.442036875565</v>
+        <v>1470.859858170193</v>
       </c>
       <c r="X13" t="n">
-        <v>1282.568540871475</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y13" t="n">
-        <v>1055.148870185583</v>
+        <v>998.048432817714</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419993</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578288</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2639626146349</v>
+        <v>787.6807519874956</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111512</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
-        <v>96.7359766811151</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
-        <v>96.7359766811151</v>
+        <v>111.8654922510992</v>
       </c>
       <c r="K14" t="n">
-        <v>96.7359766811151</v>
+        <v>111.8654922510992</v>
       </c>
       <c r="L14" t="n">
-        <v>96.7359766811151</v>
+        <v>1186.925458503958</v>
       </c>
       <c r="M14" t="n">
-        <v>1186.925458503954</v>
+        <v>1186.925458503958</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940401</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510707</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344103</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302698</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055755</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239592</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.07973311263</v>
+        <v>4803.798049006192</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429647</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363474</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774507</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874519</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D15" t="n">
         <v>401.3609716556035</v>
@@ -5346,31 +5346,31 @@
         <v>223.8567185987188</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649026</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.7359766811151</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
-        <v>96.7359766811151</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>96.7359766811151</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>96.7359766811151</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>96.7359766811151</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>96.7359766811151</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>96.7359766811151</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3408549543107</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5397,10 +5397,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>826.5253717379777</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C16" t="n">
-        <v>826.5253717379776</v>
+        <v>774.6703022412712</v>
       </c>
       <c r="D16" t="n">
-        <v>660.6473789395003</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E16" t="n">
-        <v>490.8893751902376</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902376</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064398</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I16" t="n">
-        <v>96.7359766811151</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
         <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169405</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5464,22 +5464,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V16" t="n">
         <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X16" t="n">
-        <v>1245.763661142857</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y16" t="n">
-        <v>1018.343990456965</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.656868168565</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C17" t="n">
-        <v>1814.514395351988</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D17" t="n">
-        <v>1378.604610526433</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E17" t="n">
-        <v>944.8298656847278</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111513</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
-        <v>96.73597668111513</v>
+        <v>199.0316880464641</v>
       </c>
       <c r="K17" t="n">
-        <v>96.73597668111513</v>
+        <v>199.0316880464641</v>
       </c>
       <c r="L17" t="n">
-        <v>96.73597668111513</v>
+        <v>199.0316880464641</v>
       </c>
       <c r="M17" t="n">
-        <v>1186.925458503956</v>
+        <v>1356.079523257015</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940403</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510709</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344105</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.6447693027</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R17" t="n">
-        <v>4836.798834055757</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239594</v>
+        <v>4803.798049006193</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112632</v>
+        <v>4803.798049006193</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429649</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363475</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774509</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353819</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653473</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C18" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D18" t="n">
         <v>401.3609716556035</v>
@@ -5586,28 +5586,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
-        <v>96.73597668111513</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>96.73597668111513</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>96.73597668111513</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>96.73597668111513</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>96.73597668111513</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>96.73597668111513</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5634,10 +5634,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X18" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y18" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1175.794137292997</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C19" t="n">
-        <v>1003.232425776221</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777441</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284814</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902376</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064398</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J19" t="n">
         <v>183.315661845805</v>
@@ -5677,10 +5677,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N19" t="n">
         <v>1778.026668523459</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2405.812690240927</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U19" t="n">
-        <v>2127.379689494032</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V19" t="n">
-        <v>1840.424181364463</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1840.424181364463</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1595.032426697876</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>1367.612756011984</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2252.656868168565</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C20" t="n">
-        <v>1814.514395351989</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.604610526432</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
         <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>787.2639626146349</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G20" t="n">
         <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K20" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L20" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="M20" t="n">
-        <v>1186.925458503956</v>
+        <v>1186.925458503958</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940403</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510709</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344105</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.6447693027</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055757</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239594</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112632</v>
+        <v>4803.381259633331</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429649</v>
+        <v>4544.158956950348</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363475</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774509</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.24256235382</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653473</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.9077216724079</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C21" t="n">
-        <v>496.4512605090502</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D21" t="n">
         <v>401.3609716556035</v>
@@ -5823,28 +5823,28 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
-        <v>96.73597668111513</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>96.73597668111513</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
-        <v>96.73597668111513</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L21" t="n">
-        <v>96.73597668111513</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M21" t="n">
-        <v>96.73597668111513</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N21" t="n">
-        <v>96.73597668111513</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P21" t="n">
         <v>1102.064021433509</v>
@@ -5871,10 +5871,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X21" t="n">
-        <v>850.6974019729503</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y21" t="n">
-        <v>724.211622752171</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1175.794137292997</v>
+        <v>806.2298140987275</v>
       </c>
       <c r="C22" t="n">
-        <v>1003.232425776221</v>
+        <v>633.6681025819524</v>
       </c>
       <c r="D22" t="n">
-        <v>837.3544329777442</v>
+        <v>633.6681025819524</v>
       </c>
       <c r="E22" t="n">
-        <v>667.5964292284814</v>
+        <v>463.9100988326896</v>
       </c>
       <c r="F22" t="n">
-        <v>490.8893751902376</v>
+        <v>463.9100988326896</v>
       </c>
       <c r="G22" t="n">
-        <v>325.2981002160653</v>
+        <v>298.3188238585173</v>
       </c>
       <c r="H22" t="n">
-        <v>185.3959259064398</v>
+        <v>158.4166495488918</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111513</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
         <v>183.315661845805</v>
@@ -5914,10 +5914,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5938,22 +5938,22 @@
         <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2450.419423968744</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U22" t="n">
-        <v>2171.986423221849</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V22" t="n">
-        <v>1885.03091509228</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.004510678571</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X22" t="n">
-        <v>1367.612756011984</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y22" t="n">
-        <v>1367.612756011984</v>
+        <v>998.0484328177147</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L23" t="n">
         <v>306.120802776629</v>
@@ -6063,22 +6063,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O24" t="n">
         <v>287.8657185439749</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1003.573296407379</v>
+        <v>952.7568773477105</v>
       </c>
       <c r="C25" t="n">
-        <v>831.0115848906039</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>665.1335920921266</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>665.1335920921266</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>488.4265380538828</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>322.8352630797105</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1011.560997133398</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>838.9992856166232</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,7 +6409,7 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
         <v>2292.381813755403</v>
@@ -6418,16 +6418,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1948.217445618573</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1676.191041204865</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1430.799286538277</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1203.379615852385</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6467,22 +6467,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>306.120802776629</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6540,22 +6540,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883917</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716166</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>500.5809675549925</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>330.8229638057298</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>330.8229638057298</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6622,7 +6622,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L31" t="n">
         <v>881.8088617745661</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2668.021743923745</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2422.1422975022</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2143.709296755305</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1856.753788625736</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1584.727384212027</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.992967093271</v>
+        <v>1339.33562954544</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1111.915958859548</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6698,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L32" t="n">
         <v>306.120802776629</v>
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D34" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6895,13 +6895,13 @@
         <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X34" t="n">
-        <v>1233.235445292023</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6935,10 +6935,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L35" t="n">
         <v>306.120802776629</v>
@@ -6977,7 +6977,7 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136697</v>
@@ -7011,25 +7011,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1008.757289365886</v>
+        <v>811.7546776883917</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716167</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731394</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238766</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7126,19 +7126,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303137</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1945.41373785106</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W37" t="n">
-        <v>1673.387333437352</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1427.995578770764</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y37" t="n">
-        <v>1200.575908084873</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7160,10 +7160,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,52 +7172,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L38" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477105</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7336,13 +7336,13 @@
         <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745659</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O40" t="n">
         <v>2203.220781338905</v>
@@ -7369,13 +7369,13 @@
         <v>1748.411126173567</v>
       </c>
       <c r="W40" t="n">
-        <v>1600.55729028754</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7445,7 +7445,7 @@
         <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
@@ -7454,7 +7454,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903957</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736206</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751433</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
         <v>2473.041003752035</v>
       </c>
       <c r="U43" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V43" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X43" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771586</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004225</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436387</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7652,46 +7652,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1090.187678435286</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U46" t="n">
-        <v>2313.799635050031</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V46" t="n">
-        <v>2026.844126920461</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W46" t="n">
-        <v>1754.817722506753</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1509.425967840165</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1282.006297154274</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>479.9987875054329</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773352</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>401.6418166099312</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,22 +8137,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>225.9433456478641</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>270.2148169866501</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314108</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314108</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,10 +8526,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.7362419062416</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314108</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314108</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314109</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,16 +8608,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>428.4819356050811</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8693,13 +8693,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1069.568313180545</v>
       </c>
       <c r="M11" t="n">
-        <v>1101.201496790747</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>15.28233895957977</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1101.201496790746</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -9000,10 +9000,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>103.3290013791403</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1101.201496790748</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1101.201496790748</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9711,10 +9711,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>828.0031984638366</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10127,13 +10127,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10422,10 +10422,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>268.0111327346243</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.5985112554905</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>103.1553467313942</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>77.7330760758723</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>185.1957776566207</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>267.598511255494</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="X16" t="n">
-        <v>20.09260206285782</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>267.5985112554926</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>50.144577878931</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
-        <v>96.56253959275543</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>267.5985112554925</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>184.7831561774884</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>26.70948359397251</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>140.7232059832941</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>7.90782371875909</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>3.146865729423844</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>219.0118993322379</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>160.7958207444077</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>26.99333424003468</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>128.462878909329</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>2.220053416764273</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>195.0325855607184</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>122.9308428424045</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
     </row>
     <row r="41">
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>120.4463752142712</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>208.2197249473425</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>90.22000922290074</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26068,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>3.146865729424519</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>568714.3852181355</v>
+        <v>568714.385218136</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>568714.3852181358</v>
+        <v>568714.3852181359</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>568714.3852181358</v>
+        <v>568714.3852181359</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>592714.7821545214</v>
+        <v>592714.7821545213</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>592714.7821545214</v>
+        <v>592714.7821545213</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>592714.7821545212</v>
+        <v>592714.7821545213</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>592714.7821545214</v>
+        <v>592714.7821545213</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>592714.7821545213</v>
+        <v>592714.7821545212</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>335092.0749315052</v>
       </c>
       <c r="C2" t="n">
-        <v>335092.0749315054</v>
+        <v>335092.0749315051</v>
       </c>
       <c r="D2" t="n">
         <v>335092.0749315052</v>
       </c>
       <c r="E2" t="n">
+        <v>315952.4362322978</v>
+      </c>
+      <c r="F2" t="n">
         <v>315952.4362322977</v>
       </c>
-      <c r="F2" t="n">
-        <v>315952.4362322976</v>
-      </c>
       <c r="G2" t="n">
-        <v>315952.4362322976</v>
+        <v>315952.4362322977</v>
       </c>
       <c r="H2" t="n">
-        <v>315952.4362322975</v>
+        <v>315952.4362322977</v>
       </c>
       <c r="I2" t="n">
         <v>329285.9900858453</v>
@@ -26350,7 +26350,7 @@
         <v>329285.9900858451</v>
       </c>
       <c r="O2" t="n">
-        <v>329285.9900858452</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="P2" t="n">
         <v>329285.9900858451</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039032</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390642</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200312</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520267</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283964</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856134</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784496</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510255</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104671</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>125788.3839715077</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>161077.0551897627</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>773.6821211687727</v>
+        <v>773.6821211687733</v>
       </c>
       <c r="F4" t="n">
-        <v>773.6821211687727</v>
+        <v>773.6821211687733</v>
       </c>
       <c r="G4" t="n">
-        <v>773.6821211687729</v>
+        <v>773.6821211687733</v>
       </c>
       <c r="H4" t="n">
-        <v>773.6821211687729</v>
+        <v>773.6821211687732</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26448,7 +26448,7 @@
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826432</v>
       </c>
       <c r="N4" t="n">
         <v>806.3323907826023</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814197</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846977</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764749</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764748</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
-        <v>73519.34227764751</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764751</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
         <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-35692.10713518684</v>
+        <v>-67357.70180204762</v>
       </c>
       <c r="C6" t="n">
-        <v>106499.1935245233</v>
+        <v>130034.5997775904</v>
       </c>
       <c r="D6" t="n">
-        <v>101458.9421212696</v>
+        <v>147375.1441514969</v>
       </c>
       <c r="E6" t="n">
-        <v>17860.11808145471</v>
+        <v>79847.77806857029</v>
       </c>
       <c r="F6" t="n">
-        <v>241659.4118334814</v>
+        <v>241582.8532786846</v>
       </c>
       <c r="G6" t="n">
-        <v>241659.4118334813</v>
+        <v>241582.8532786846</v>
       </c>
       <c r="H6" t="n">
-        <v>241659.4118334812</v>
+        <v>241582.8532786846</v>
       </c>
       <c r="I6" t="n">
-        <v>232396.7034564305</v>
+        <v>232373.479117048</v>
       </c>
       <c r="J6" t="n">
-        <v>139746.9537442799</v>
+        <v>90130.36526427403</v>
       </c>
       <c r="K6" t="n">
-        <v>250761.4190892701</v>
+        <v>236924.1861820425</v>
       </c>
       <c r="L6" t="n">
-        <v>241813.8080007599</v>
+        <v>250738.1947498875</v>
       </c>
       <c r="M6" t="n">
-        <v>63970.43247880298</v>
+        <v>115748.250136884</v>
       </c>
       <c r="N6" t="n">
-        <v>250761.41908927</v>
+        <v>250738.1947498874</v>
       </c>
       <c r="O6" t="n">
-        <v>250761.4190892701</v>
+        <v>250738.1947498873</v>
       </c>
       <c r="P6" t="n">
-        <v>250761.4190892699</v>
+        <v>250738.1947498873</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314108</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130643</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825282</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080615</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130643</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282528</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052189</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130643</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825282</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,10 +27388,10 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>329.3909293606151</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27430,22 +27430,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>137.5442923419257</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>27.13805441699591</v>
+        <v>205.1590987941868</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>9.465190568306582</v>
-      </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>71.70196325595424</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="F5" t="n">
-        <v>94.80435447942119</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27682,7 +27682,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>110.5401275154699</v>
+        <v>111.4236523045822</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>51.02530924623028</v>
+        <v>86.14502017843142</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>48.19697732171633</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>33.7001439984607</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>479.9987875054329</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773352</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>401.6418166099312</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773351</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>225.9433456478641</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>310.9272166398487</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>270.2148169866501</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314108</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314108</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,10 +35246,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.7362419062416</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314108</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314108</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314109</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>428.4819356050811</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35413,13 +35413,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1069.568313180545</v>
       </c>
       <c r="M11" t="n">
-        <v>1101.201496790747</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>15.28233895957977</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1101.201496790746</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>103.3290013791403</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1101.201496790748</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1101.201496790748</v>
+        <v>1101.201496790751</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36449,7 +36449,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>828.0031984638366</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36835,7 +36835,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36847,13 +36847,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>-7.057883958142392e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36993,16 +36993,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37470,13 +37470,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080413</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
